--- a/KT_기록.xlsx
+++ b/KT_기록.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,22 +583,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.294</v>
+        <v>0.291</v>
       </c>
       <c r="E2" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F2" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G2" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>10</v>
@@ -555,16 +610,49 @@
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>22</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>43</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.143</v>
       </c>
     </row>
     <row r="3">
@@ -582,22 +670,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.267</v>
+        <v>0.266</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G3" t="n">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
@@ -606,18 +694,51 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N3" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>44</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -674,6 +795,39 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -726,6 +880,39 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -740,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,6 +1011,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -878,6 +1120,39 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -885,7 +1160,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>황재균</t>
+          <t>장준원</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -894,43 +1169,76 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.263</v>
+        <v>0.286</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>53</v>
       </c>
       <c r="G3" t="n">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="H3" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>25</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>14</v>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>101</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -939,7 +1247,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>박병호</t>
+          <t>황재균</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -948,43 +1256,76 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.258</v>
+        <v>0.276</v>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="G4" t="n">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="N4" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>30</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>49</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -993,7 +1334,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>장준원</t>
+          <t>강백호</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1002,25 +1343,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.256</v>
+        <v>0.268</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1029,15 +1370,48 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>14</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="Y5" t="n">
         <v>6</v>
       </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="Z5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1047,7 +1421,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>심우준</t>
+          <t>박병호</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1056,43 +1430,76 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.251</v>
+        <v>0.263</v>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="G6" t="n">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="H6" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="M6" t="n">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="N6" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>22</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>89</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -1101,7 +1508,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>강백호</t>
+          <t>심우준</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1110,43 +1517,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0.251</v>
       </c>
       <c r="E7" t="n">
+        <v>72</v>
+      </c>
+      <c r="F7" t="n">
+        <v>238</v>
+      </c>
+      <c r="G7" t="n">
+        <v>207</v>
+      </c>
+      <c r="H7" t="n">
+        <v>33</v>
+      </c>
+      <c r="I7" t="n">
+        <v>52</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>63</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
         <v>21</v>
       </c>
-      <c r="F7" t="n">
-        <v>91</v>
-      </c>
-      <c r="G7" t="n">
-        <v>80</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>39</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="Y7" t="n">
         <v>13</v>
       </c>
-      <c r="I7" t="n">
-        <v>20</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>35</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
+      <c r="Z7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.333</v>
       </c>
     </row>
     <row r="8">
@@ -1164,22 +1604,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.247</v>
+        <v>0.245</v>
       </c>
       <c r="E8" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F8" t="n">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="G8" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8" t="n">
         <v>8</v>
@@ -1191,16 +1631,49 @@
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>23</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>42</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.333</v>
       </c>
     </row>
     <row r="9">
@@ -1256,6 +1729,39 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>22</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.333</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1310,6 +1816,39 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1364,6 +1903,39 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>17</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1418,6 +1990,39 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>13</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>30</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.154</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1437,7 +2042,7 @@
         <v>0.067</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>16</v>
@@ -1470,6 +2075,39 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1524,6 +2162,39 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,7 +2209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1622,6 +2293,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1676,6 +2402,39 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1729,6 +2488,39 @@
       </c>
       <c r="P3" t="n">
         <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>26</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>42</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -1746,25 +2538,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.262</v>
+        <v>0.27</v>
       </c>
       <c r="E4" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G4" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -1773,16 +2565,49 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" t="n">
         <v>10</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>24</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>37</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.333</v>
       </c>
     </row>
     <row r="5">
@@ -1800,43 +2625,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.256</v>
+        <v>0.261</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F5" t="n">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="G5" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J5" t="n">
         <v>11</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>60</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.333</v>
       </c>
     </row>
     <row r="6">
@@ -1892,6 +2750,39 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1946,6 +2837,39 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>23</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1962,22 +2886,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.231</v>
+        <v>0.206</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G8" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1989,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
         <v>12</v>
@@ -1999,6 +2923,39 @@
       </c>
       <c r="P8" t="n">
         <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>24</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2016,43 +2973,76 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.149</v>
+        <v>0.167</v>
       </c>
       <c r="E9" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
         <v>8</v>
       </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>13</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.125</v>
       </c>
     </row>
     <row r="10">
@@ -2073,7 +3063,7 @@
         <v>0.111</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -2106,6 +3096,39 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2160,6 +3183,39 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2174,7 +3230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2343,6 +3399,56 @@
           <t>BK</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Wgs</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Wgr</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>GF</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>SVO</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>GO/AO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2350,7 +3456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>김민수</t>
+          <t>데스파이네</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2360,53 +3466,53 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36 2/3</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.96</v>
+        <v>4.5</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="L2" t="n">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="S2" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2415,40 +3521,70 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>150</v>
+        <v>393</v>
       </c>
       <c r="Y2" t="n">
-        <v>560</v>
+        <v>1560</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.223</v>
+        <v>0.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>109</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="3">
@@ -2457,7 +3593,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이채호</t>
+          <t>배제성</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2467,95 +3603,125 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>86 2/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.25</v>
+        <v>4.26</v>
       </c>
       <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>81</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>33</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>47</v>
+      </c>
+      <c r="R3" t="n">
+        <v>41</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>363</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1464</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA3" t="n">
         <v>12</v>
       </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="AB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="n">
         <v>3</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AD3" t="n">
         <v>3</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>49</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>93</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -2564,7 +3730,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이정현</t>
+          <t>소형준</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2574,97 +3740,125 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3 2/3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.45</v>
+        <v>2.61</v>
       </c>
       <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>85</v>
+      </c>
+      <c r="M4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>19</v>
+      </c>
+      <c r="O4" t="n">
         <v>3</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>33</v>
+      </c>
+      <c r="R4" t="n">
+        <v>29</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>11</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>402</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1415</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
         <v>4</v>
       </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
       <c r="AG4" t="n">
         <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>132</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>83</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="5">
@@ -2673,7 +3867,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>쿠에바스</t>
+          <t>고영표</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2683,20 +3877,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>101 2/3</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2705,73 +3899,103 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.545</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="S5" t="n">
-        <v>0.64</v>
+        <v>1.12</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>40</v>
+        <v>419</v>
       </c>
       <c r="Y5" t="n">
-        <v>167</v>
+        <v>1465</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.059</v>
+        <v>0.258</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>133</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>64</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -2780,7 +4004,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>안영명</t>
+          <t>엄상백</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2790,20 +4014,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3 1/3</t>
+          <t>70 2/3</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2811,34 +4035,32 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K6" t="n">
+        <v>0.75</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -2847,31 +4069,31 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
-        <v>49</v>
+        <v>1201</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.25</v>
+        <v>0.268</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -2881,6 +4103,36 @@
       </c>
       <c r="AG6" t="n">
         <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>56</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>83</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="7">
@@ -2889,7 +4141,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>소형준</t>
+          <t>벤자민</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2899,20 +4151,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.81</v>
+        <v>4.15</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2921,73 +4173,103 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L7" t="n">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>199</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="n">
         <v>3</v>
       </c>
-      <c r="N7" t="n">
-        <v>19</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>64</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>33</v>
-      </c>
-      <c r="R7" t="n">
-        <v>29</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>10</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>378</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1321</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
+      <c r="AI7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="8">
@@ -2996,7 +4278,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>고영표</t>
+          <t>쿠에바스</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3006,95 +4288,125 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95 2/3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.82</v>
+        <v>2.45</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
         <v>5</v>
       </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>90</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
       <c r="O8" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.08</v>
+        <v>0.64</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="n">
-        <v>1376</v>
+        <v>167</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.248</v>
+        <v>0.059</v>
       </c>
       <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="n">
         <v>15</v>
       </c>
-      <c r="AB8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
+      <c r="AQ8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
@@ -3103,7 +4415,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>주권</t>
+          <t>심재민</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3113,44 +4425,44 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28 1/3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.18</v>
+        <v>3.21</v>
       </c>
       <c r="F9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="n">
         <v>10</v>
@@ -3159,7 +4471,7 @@
         <v>10</v>
       </c>
       <c r="S9" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -3174,34 +4486,64 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="n">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.267</v>
+        <v>0.236</v>
       </c>
       <c r="AA9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>3</v>
       </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
+      <c r="AK9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="10">
@@ -3210,7 +4552,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>김재윤</t>
+          <t>전유수</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3220,95 +4562,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30 2/3</t>
+          <t>7 2/3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.23</v>
+        <v>5.87</v>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>21</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>116</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
         <v>11</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2</v>
-      </c>
-      <c r="X10" t="n">
-        <v>124</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>451</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
+      <c r="AP10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3317,7 +4691,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>심재민</t>
+          <t>김태오</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3327,53 +4701,55 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3 2/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.33</v>
+        <v>4.91</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>4</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L11" t="n">
-        <v>25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>15</v>
-      </c>
       <c r="Q11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.3</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -3388,34 +4764,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>447</v>
+        <v>60</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.243</v>
+        <v>0.389</v>
       </c>
       <c r="AA11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -3424,7 +4830,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>엄상백</t>
+          <t>조현우</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3434,53 +4840,55 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>11 2/3</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.57</v>
+        <v>4.63</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>13</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8</v>
+      </c>
+      <c r="R12" t="n">
         <v>6</v>
       </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L12" t="n">
-        <v>68</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N12" t="n">
-        <v>22</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>59</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>31</v>
-      </c>
-      <c r="R12" t="n">
-        <v>27</v>
-      </c>
       <c r="S12" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -3489,22 +4897,22 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>286</v>
+        <v>54</v>
       </c>
       <c r="Y12" t="n">
-        <v>1145</v>
+        <v>184</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.265</v>
+        <v>0.277</v>
       </c>
       <c r="AA12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB12" t="n">
         <v>1</v>
@@ -3513,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -3523,6 +4931,36 @@
       </c>
       <c r="AG12" t="n">
         <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="13">
@@ -3531,7 +4969,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>박영현</t>
+          <t>박시영</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3541,31 +4979,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19 2/3</t>
+          <t>15 2/3</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.66</v>
+        <v>4.6</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>19</v>
@@ -3574,16 +5010,16 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R13" t="n">
         <v>8</v>
@@ -3604,34 +5040,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="Y13" t="n">
-        <v>379</v>
+        <v>229</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.247</v>
+        <v>0.311</v>
       </c>
       <c r="AA13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="14">
@@ -3640,7 +5106,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>벤자민</t>
+          <t>지명성</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3650,11 +5116,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.86</v>
+        <v>4.5</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -3663,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -3671,74 +5137,106 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP14" t="n">
         <v>3</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>112</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
+      <c r="AQ14" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="15">
@@ -3747,7 +5245,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>배제성</t>
+          <t>김민수</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3757,95 +5255,125 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>86 2/3</t>
+          <t>37 2/3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.26</v>
+        <v>1.91</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>32</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>9</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="n">
+      <c r="X15" t="n">
+        <v>154</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>571</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="AA15" t="n">
         <v>7</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>81</v>
-      </c>
-      <c r="M15" t="n">
-        <v>7</v>
-      </c>
-      <c r="N15" t="n">
-        <v>33</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>73</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>47</v>
-      </c>
-      <c r="R15" t="n">
-        <v>41</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>9</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>363</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1464</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>12</v>
-      </c>
       <c r="AB15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="n">
         <v>3</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="n">
         <v>3</v>
       </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
+      <c r="AO15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="16">
@@ -3854,7 +5382,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>데스파이네</t>
+          <t>박영현</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3864,95 +5392,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>20 2/3</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.5</v>
+        <v>3.48</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>19</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>9</v>
+      </c>
+      <c r="R16" t="n">
+        <v>8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>91</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>390</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="AA16" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="L16" t="n">
-        <v>109</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>18</v>
-      </c>
-      <c r="O16" t="n">
-        <v>6</v>
-      </c>
-      <c r="P16" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>53</v>
-      </c>
-      <c r="R16" t="n">
-        <v>45</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>393</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1560</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>18</v>
-      </c>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="17">
@@ -3961,7 +5521,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>지명성</t>
+          <t>이채호</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3971,17 +5531,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.5</v>
+        <v>2.08</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -3990,36 +5550,34 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
       </c>
       <c r="L17" t="n">
+        <v>12</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -4034,16 +5592,16 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="Y17" t="n">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.333</v>
+        <v>0.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -4062,6 +5620,36 @@
       </c>
       <c r="AG17" t="n">
         <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="18">
@@ -4070,7 +5658,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>박시영</t>
+          <t>김재윤</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4080,95 +5668,125 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15 2/3</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>3.19</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>13</v>
+      </c>
+      <c r="R18" t="n">
+        <v>11</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>125</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>455</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>4</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>8</v>
-      </c>
-      <c r="R18" t="n">
-        <v>8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>68</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>229</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="19">
@@ -4177,7 +5795,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>조현우</t>
+          <t>주권</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4187,55 +5805,53 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11 2/3</t>
+          <t>29 1/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.63</v>
+        <v>3.07</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5</v>
       </c>
       <c r="L19" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="Q19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S19" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -4250,22 +5866,22 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="Y19" t="n">
-        <v>184</v>
+        <v>435</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.277</v>
+        <v>0.259</v>
       </c>
       <c r="AA19" t="n">
         <v>3</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -4278,6 +5894,36 @@
       </c>
       <c r="AG19" t="n">
         <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="20">
@@ -4286,7 +5932,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>김태오</t>
+          <t>안영명</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4296,11 +5942,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3 2/3</t>
+          <t>3 1/3</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.91</v>
+        <v>2.7</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
@@ -4323,7 +5969,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -4335,16 +5981,16 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.91</v>
+        <v>0.9</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -4359,16 +6005,16 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.389</v>
+        <v>0.25</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -4377,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -4387,6 +6033,36 @@
       </c>
       <c r="AG20" t="n">
         <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -4395,7 +6071,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>전유수</t>
+          <t>이정현</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4405,97 +6081,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7 2/3</t>
+          <t>3 2/3</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.87</v>
+        <v>2.45</v>
       </c>
       <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
         <v>4</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="n">
         <v>8</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
+      <c r="AQ21" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="22">
@@ -4603,6 +6309,36 @@
       </c>
       <c r="AG22" t="n">
         <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>

--- a/KT_기록.xlsx
+++ b/KT_기록.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="투수" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="포수" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="내야수" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="외야수" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="투수" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +428,2808 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>김준태</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="E2" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2" t="n">
+        <v>166</v>
+      </c>
+      <c r="G2" t="n">
+        <v>139</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="n">
+        <v>39</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>57</v>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>23</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>43</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>장성우</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="E3" t="n">
+        <v>71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>251</v>
+      </c>
+      <c r="G3" t="n">
+        <v>217</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>58</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" t="n">
+        <v>102</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>48</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>문상인</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>조대현</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>문상준</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>황재균</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E3" t="n">
+        <v>79</v>
+      </c>
+      <c r="F3" t="n">
+        <v>329</v>
+      </c>
+      <c r="G3" t="n">
+        <v>295</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>81</v>
+      </c>
+      <c r="J3" t="n">
+        <v>18</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>116</v>
+      </c>
+      <c r="N3" t="n">
+        <v>42</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>30</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>50</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>강백호</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22</v>
+      </c>
+      <c r="F4" t="n">
+        <v>93</v>
+      </c>
+      <c r="G4" t="n">
+        <v>82</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>14</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>박병호</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="E5" t="n">
+        <v>79</v>
+      </c>
+      <c r="F5" t="n">
+        <v>322</v>
+      </c>
+      <c r="G5" t="n">
+        <v>285</v>
+      </c>
+      <c r="H5" t="n">
+        <v>51</v>
+      </c>
+      <c r="I5" t="n">
+        <v>76</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>168</v>
+      </c>
+      <c r="N5" t="n">
+        <v>69</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="n">
+        <v>92</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>장준원</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="E6" t="n">
+        <v>32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>54</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>16</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>오윤석</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>236</v>
+      </c>
+      <c r="G7" t="n">
+        <v>198</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>70</v>
+      </c>
+      <c r="N7" t="n">
+        <v>31</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>44</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>심우준</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="E8" t="n">
+        <v>76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>250</v>
+      </c>
+      <c r="G8" t="n">
+        <v>217</v>
+      </c>
+      <c r="H8" t="n">
+        <v>36</v>
+      </c>
+      <c r="I8" t="n">
+        <v>54</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>65</v>
+      </c>
+      <c r="N8" t="n">
+        <v>17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>23</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>41</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>김병희</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="E9" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" t="n">
+        <v>74</v>
+      </c>
+      <c r="G9" t="n">
+        <v>64</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>18</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>22</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>유준규</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>신본기</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32</v>
+      </c>
+      <c r="F11" t="n">
+        <v>58</v>
+      </c>
+      <c r="G11" t="n">
+        <v>56</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>17</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>박경수</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E12" t="n">
+        <v>59</v>
+      </c>
+      <c r="F12" t="n">
+        <v>103</v>
+      </c>
+      <c r="G12" t="n">
+        <v>90</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>13</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>31</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>권동진</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="E13" t="n">
+        <v>17</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G13" t="n">
+        <v>17</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>양승혁</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>전진영</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>조용호</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>268</v>
+      </c>
+      <c r="G3" t="n">
+        <v>237</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>72</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>89</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>45</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>김민혁</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>280</v>
+      </c>
+      <c r="G4" t="n">
+        <v>240</v>
+      </c>
+      <c r="H4" t="n">
+        <v>34</v>
+      </c>
+      <c r="I4" t="n">
+        <v>65</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>72</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>37</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>배정대</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="E5" t="n">
+        <v>82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>310</v>
+      </c>
+      <c r="G5" t="n">
+        <v>272</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>93</v>
+      </c>
+      <c r="N5" t="n">
+        <v>20</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>65</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>라모스</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>80</v>
+      </c>
+      <c r="G6" t="n">
+        <v>72</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>30</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>홍현빈</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="E7" t="n">
+        <v>44</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>68</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>18</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>23</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>알포드</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>86</v>
+      </c>
+      <c r="G8" t="n">
+        <v>75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>28</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>29</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>송민섭</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>74</v>
+      </c>
+      <c r="F9" t="n">
+        <v>55</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>14</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>이시원</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>문상철</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -661,17 +3466,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>95 2/3</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>8</v>
@@ -683,31 +3488,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.333</v>
+        <v>0.385</v>
       </c>
       <c r="L2" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" t="n">
         <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S2" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="Y2" t="n">
-        <v>1560</v>
+        <v>1655</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3</v>
+        <v>0.304</v>
       </c>
       <c r="AA2" t="n">
         <v>18</v>
@@ -737,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
         <v>2</v>
@@ -752,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
@@ -770,16 +3575,16 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AP2" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +3593,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>배제성</t>
+          <t>소형준</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -798,53 +3603,53 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86 2/3</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.26</v>
+        <v>2.55</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="L3" t="n">
+        <v>92</v>
+      </c>
+      <c r="M3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>81</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7</v>
-      </c>
       <c r="N3" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q3" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -853,46 +3658,46 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="Y3" t="n">
-        <v>1464</v>
+        <v>1502</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.25</v>
+        <v>0.232</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -907,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AP3" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.86</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4">
@@ -925,7 +3730,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>소형준</t>
+          <t>배제성</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -935,20 +3740,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90 1/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.61</v>
+        <v>4.58</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -957,31 +3762,31 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.273</v>
       </c>
       <c r="L4" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>74</v>
       </c>
       <c r="Q4" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="R4" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="S4" t="n">
-        <v>1.04</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -990,46 +3795,46 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="Y4" t="n">
-        <v>1415</v>
+        <v>1527</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.228</v>
+        <v>0.26</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="n">
         <v>3</v>
       </c>
-      <c r="AC4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -1044,16 +3849,16 @@
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="AP4" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.59</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -1209,14 +4014,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70 2/3</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.44</v>
+        <v>3.53</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -1234,28 +4039,28 @@
         <v>0.75</v>
       </c>
       <c r="L6" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1270,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="Y6" t="n">
-        <v>1201</v>
+        <v>1251</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.268</v>
+        <v>0.264</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
@@ -1324,10 +4129,10 @@
         <v>56</v>
       </c>
       <c r="AP6" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7">
@@ -1346,14 +4151,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19 2/3</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.15</v>
+        <v>3.66</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1371,28 +4176,28 @@
         <v>0.5</v>
       </c>
       <c r="L7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S7" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1401,22 +4206,22 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="n">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.277</v>
+        <v>0.254</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1425,19 +4230,19 @@
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
         <v>1</v>
@@ -1458,13 +4263,13 @@
         <v>2</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.71</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1620,14 +4425,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.21</v>
+        <v>3.41</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -1645,7 +4450,7 @@
         <v>0.75</v>
       </c>
       <c r="L9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1660,13 +4465,13 @@
         <v>15</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S9" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1681,16 +4486,16 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="n">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.236</v>
+        <v>0.252</v>
       </c>
       <c r="AA9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1729,16 +4534,16 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP9" t="n">
         <v>30</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
@@ -1757,14 +4562,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7 2/3</t>
+          <t>8 2/3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.87</v>
+        <v>6.23</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1784,7 +4589,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1799,13 +4604,13 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S10" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1820,13 +4625,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.258</v>
+        <v>0.297</v>
       </c>
       <c r="AA10" t="n">
         <v>5</v>
@@ -1859,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
@@ -1871,13 +4676,13 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="11">
@@ -2440,7 +5245,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>김민수</t>
+          <t>이채호</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2450,53 +5255,53 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>37 2/3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2508,34 +5313,34 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="Y15" t="n">
-        <v>571</v>
+        <v>210</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.224</v>
+        <v>0.235</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2547,28 +5352,28 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
         <v>14</v>
       </c>
-      <c r="AM15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>36</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="16">
@@ -2577,7 +5382,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>박영현</t>
+          <t>김민수</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2587,127 +5392,125 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20 2/3</t>
+          <t>40 2/3</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.48</v>
+        <v>1.99</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.333</v>
       </c>
       <c r="L16" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q16" t="n">
         <v>10</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>9</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>626</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK16" t="n">
         <v>8</v>
       </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>91</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>390</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>11</v>
-      </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="AP16" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.43</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
@@ -2716,7 +5519,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>이채호</t>
+          <t>박영현</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2726,125 +5529,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21 2/3</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.08</v>
+        <v>3.32</v>
       </c>
       <c r="F17" t="n">
+        <v>23</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>19</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>8</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>404</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
         <v>13</v>
       </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>53</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>199</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>11</v>
-      </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.79</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="18">
@@ -2863,14 +5668,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33 1/3</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -2879,7 +5684,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2888,7 +5693,7 @@
         <v>0.4</v>
       </c>
       <c r="L18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
@@ -2900,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q18" t="n">
         <v>13</v>
@@ -2909,7 +5714,7 @@
         <v>11</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2924,13 +5729,13 @@
         <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Y18" t="n">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.186</v>
+        <v>0.182</v>
       </c>
       <c r="AA18" t="n">
         <v>2</v>
@@ -2963,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>3</v>
@@ -2978,10 +5783,10 @@
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="19">
@@ -3000,14 +5805,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29 1/3</t>
+          <t>30 2/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -3019,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K19" t="n">
         <v>0.5</v>
@@ -3037,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q19" t="n">
         <v>10</v>
@@ -3046,7 +5851,7 @@
         <v>10</v>
       </c>
       <c r="S19" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -3061,13 +5866,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Y19" t="n">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.259</v>
+        <v>0.25</v>
       </c>
       <c r="AA19" t="n">
         <v>3</v>
@@ -3103,7 +5908,7 @@
         <v>3</v>
       </c>
       <c r="AL19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -3112,13 +5917,13 @@
         <v>5</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AP19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="20">
